--- a/DesignerConfigs/Datas/mail/邮箱系统数据表.xlsx
+++ b/DesignerConfigs/Datas/mail/邮箱系统数据表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\mail\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2D6527-9360-49CB-B585-0A1DC62E74F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14340" activeTab="1"/>
+    <workbookView xWindow="2055" yWindow="885" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="系统邮件数据表" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>##</t>
   </si>
@@ -165,19 +171,21 @@
   </si>
   <si>
     <t>null;null</t>
+  </si>
+  <si>
+    <t>""</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,151 +201,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,192 +222,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -586,251 +276,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -852,6 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -861,63 +310,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1175,26 +579,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1213,7 +617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="72.75" spans="1:7">
+    <row r="3" spans="1:7" ht="72.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1236,7 +640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="28.5" spans="1:7">
+    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1249,7 +653,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>11</v>
       </c>
@@ -1266,7 +670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>12</v>
       </c>
@@ -1283,7 +687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>13</v>
       </c>
@@ -1300,7 +704,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>14</v>
       </c>
@@ -1317,7 +721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>15</v>
       </c>
@@ -1335,34 +739,33 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:T7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="14" max="14" width="25.625" customWidth="1"/>
     <col min="15" max="15" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1392,10 +795,10 @@
       <c r="K2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="9"/>
+      <c r="M2" s="10"/>
       <c r="N2" s="1" t="s">
         <v>33</v>
       </c>
@@ -1403,7 +806,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" ht="115.5" spans="1:15">
+    <row r="3" spans="1:20" ht="115.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1450,7 +853,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" ht="28.5" spans="1:15">
+    <row r="4" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1471,7 +874,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>21</v>
       </c>
@@ -1502,22 +905,22 @@
       <c r="M5">
         <v>120</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="7" t="s">
         <v>43</v>
       </c>
       <c r="T5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -1546,19 +949,19 @@
       <c r="M6">
         <v>120</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -1587,10 +990,48 @@
       <c r="M7">
         <v>60</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>50</v>
+      </c>
+      <c r="M8">
+        <v>60</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1599,7 +1040,7 @@
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L2:M2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/DesignerConfigs/Datas/mail/邮箱系统数据表.xlsx
+++ b/DesignerConfigs/Datas/mail/邮箱系统数据表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\mail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2D6527-9360-49CB-B585-0A1DC62E74F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3585DA9-D59A-4D9A-9D76-03F1ED7D2378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="885" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28995" yWindow="345" windowWidth="27645" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="系统邮件数据表" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>##</t>
   </si>
@@ -89,18 +89,12 @@
     <t>测试内容3</t>
   </si>
   <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
     <t>测试4</t>
   </si>
   <si>
     <t>测试内容4</t>
   </si>
   <si>
-    <t>2,3</t>
-  </si>
-  <si>
     <t>测试5</t>
   </si>
   <si>
@@ -164,9 +158,6 @@
     <t>2020-05-20;2020-05-25</t>
   </si>
   <si>
-    <t>1,6</t>
-  </si>
-  <si>
     <t>null;2020-05-17</t>
   </si>
   <si>
@@ -174,10 +165,6 @@
   </si>
   <si>
     <t>""</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -587,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -700,8 +687,8 @@
       <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" t="s">
-        <v>22</v>
+      <c r="G7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -709,16 +696,16 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -726,16 +713,16 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -748,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -784,26 +771,26 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="115.5" x14ac:dyDescent="0.2">
@@ -829,28 +816,28 @@
         <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
@@ -906,13 +893,13 @@
         <v>120</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -920,7 +907,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -929,7 +916,7 @@
         <v>19</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -950,27 +937,24 @@
         <v>120</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
       <c r="E7" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -991,10 +975,10 @@
         <v>60</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -1007,8 +991,8 @@
       <c r="F8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
+      <c r="G8">
+        <v>1</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -1029,10 +1013,10 @@
         <v>60</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/mail/邮箱系统数据表.xlsx
+++ b/DesignerConfigs/Datas/mail/邮箱系统数据表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\mail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3585DA9-D59A-4D9A-9D76-03F1ED7D2378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81057C69-DD55-4518-9603-DE15FAA89EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28995" yWindow="345" windowWidth="27645" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,7 +575,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -722,7 +722,7 @@
         <v>25</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/mail/邮箱系统数据表.xlsx
+++ b/DesignerConfigs/Datas/mail/邮箱系统数据表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\mail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81057C69-DD55-4518-9603-DE15FAA89EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A61C4E-5B76-4EB7-8ECD-24D37A96A8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28995" yWindow="345" windowWidth="27645" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30825" yWindow="2295" windowWidth="25335" windowHeight="12915" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="系统邮件数据表" sheetId="1" r:id="rId1"/>
@@ -21,150 +21,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>sender</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>award</t>
+  </si>
+  <si>
+    <t>邮件编号</t>
+  </si>
+  <si>
+    <t>邮件备注</t>
+  </si>
+  <si>
+    <t>邮件标题</t>
+  </si>
+  <si>
+    <t>邮件发件人</t>
+  </si>
+  <si>
+    <t>邮件内容</t>
+  </si>
+  <si>
+    <t>邮件奖励</t>
+  </si>
+  <si>
+    <t>策划备注不导表</t>
+  </si>
+  <si>
+    <t>测试1</t>
+  </si>
+  <si>
+    <t>系统</t>
+  </si>
+  <si>
+    <t>测试内容1</t>
+  </si>
+  <si>
+    <t>测试2</t>
+  </si>
+  <si>
+    <t>测试内容2</t>
+  </si>
+  <si>
+    <t>测试3</t>
+  </si>
+  <si>
+    <t>测试内容3</t>
+  </si>
+  <si>
+    <t>测试4</t>
+  </si>
+  <si>
+    <t>测试内容4</t>
+  </si>
+  <si>
+    <t>测试5</t>
+  </si>
+  <si>
+    <t>测试内容5</t>
+  </si>
+  <si>
+    <t>all_server</t>
+  </si>
+  <si>
+    <t>server_list</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>min_max_level</t>
+  </si>
+  <si>
+    <t>register_time</t>
+  </si>
+  <si>
+    <t>mail_time</t>
+  </si>
+  <si>
+    <t>是否全服</t>
+  </si>
+  <si>
+    <t>服务器列表</t>
+  </si>
+  <si>
+    <t>平台</t>
+  </si>
+  <si>
+    <t>渠道</t>
+  </si>
+  <si>
+    <t>账号等级上下限</t>
+  </si>
+  <si>
+    <t>账号等级上限</t>
+  </si>
+  <si>
+    <t>账号注册时间限制</t>
+  </si>
+  <si>
+    <t>邮件生效时间限制</t>
+  </si>
+  <si>
+    <t>2020-05-10;2020-05-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2020-05-05;null</t>
+  </si>
+  <si>
+    <t>2020-05-20;2020-05-25</t>
+  </si>
+  <si>
+    <t>null;2020-05-17</t>
+  </si>
+  <si>
+    <t>null;null</t>
+  </si>
+  <si>
+    <t>""</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>##</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>sender</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>award</t>
-  </si>
-  <si>
-    <t>是否导表</t>
-  </si>
-  <si>
-    <t>邮件编号</t>
-  </si>
-  <si>
-    <t>邮件备注</t>
-  </si>
-  <si>
-    <t>邮件标题</t>
-  </si>
-  <si>
-    <t>邮件发件人</t>
-  </si>
-  <si>
-    <t>邮件内容</t>
-  </si>
-  <si>
-    <t>邮件奖励</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>策划备注不导表</t>
-  </si>
-  <si>
-    <t>测试1</t>
-  </si>
-  <si>
-    <t>系统</t>
-  </si>
-  <si>
-    <t>测试内容1</t>
-  </si>
-  <si>
-    <t>测试2</t>
-  </si>
-  <si>
-    <t>测试内容2</t>
-  </si>
-  <si>
-    <t>测试3</t>
-  </si>
-  <si>
-    <t>测试内容3</t>
-  </si>
-  <si>
-    <t>测试4</t>
-  </si>
-  <si>
-    <t>测试内容4</t>
-  </si>
-  <si>
-    <t>测试5</t>
-  </si>
-  <si>
-    <t>测试内容5</t>
-  </si>
-  <si>
-    <t>all_server</t>
-  </si>
-  <si>
-    <t>server_list</t>
-  </si>
-  <si>
-    <t>platform</t>
-  </si>
-  <si>
-    <t>channel</t>
-  </si>
-  <si>
-    <t>min_max_level</t>
-  </si>
-  <si>
-    <t>register_time</t>
-  </si>
-  <si>
-    <t>mail_time</t>
-  </si>
-  <si>
-    <t>是否全服</t>
-  </si>
-  <si>
-    <t>服务器列表</t>
-  </si>
-  <si>
-    <t>平台</t>
-  </si>
-  <si>
-    <t>渠道</t>
-  </si>
-  <si>
-    <t>账号等级上下限</t>
-  </si>
-  <si>
-    <t>账号等级上限</t>
-  </si>
-  <si>
-    <t>账号注册时间限制</t>
-  </si>
-  <si>
-    <t>邮件生效时间限制</t>
-  </si>
-  <si>
-    <t>2020-05-10;2020-05-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>2020-05-05;null</t>
-  </si>
-  <si>
-    <t>2020-05-20;2020-05-25</t>
-  </si>
-  <si>
-    <t>null;2020-05-17</t>
-  </si>
-  <si>
-    <t>null;null</t>
-  </si>
-  <si>
-    <t>""</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -172,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,12 +196,22 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -267,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,23 +301,20 @@
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,86 +591,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="72.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="72.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="G4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -659,16 +692,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -676,16 +709,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -693,35 +726,18 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
       <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9">
         <v>1</v>
       </c>
     </row>
@@ -733,10 +749,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -746,138 +762,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="8"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="M1" s="8"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="9" t="s">
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>120</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
@@ -887,33 +942,27 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M5">
         <v>120</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="T5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -931,27 +980,27 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M6">
-        <v>120</v>
-      </c>
-      <c r="N6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -974,55 +1023,16 @@
       <c r="M7">
         <v>60</v>
       </c>
-      <c r="N7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>50</v>
-      </c>
-      <c r="M8">
-        <v>60</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>46</v>
+      <c r="N7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
